--- a/SeminarPaper/Model/input_data/storages.xlsx
+++ b/SeminarPaper/Model/input_data/storages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76219A12-E064-4005-9CD8-A60BD56CBC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330470D4-8A5B-438B-9980-DD082DEE52DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">Technology    	</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>FOMCost[EUR/MW(h)a]</t>
   </si>
 </sst>
 </file>
@@ -135,11 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -422,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,11 +436,11 @@
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -498,10 +502,10 @@
       <c r="G2">
         <v>60</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>65348.464260000001</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>77348.464259999993</v>
       </c>
       <c r="J2">
@@ -533,10 +537,10 @@
       <c r="G3">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>60181.940390000003</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>70181.940390000003</v>
       </c>
       <c r="J3">
@@ -564,16 +568,19 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -591,20 +598,24 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
+        <f>1000*12</f>
+        <v>12000</v>
+      </c>
+      <c r="F9" s="1">
         <f>D9*1000</f>
         <v>10000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>60</v>
       </c>
-      <c r="G9">
-        <f>(((1+B12)^F9*B12)/((1+B12)^F9-1))*C9</f>
-        <v>64450.38512323569</v>
-      </c>
-      <c r="H9">
-        <f>(((1+B12)^F9)/((1+B12)^F9-1))*E9</f>
-        <v>10565.636905448473</v>
+      <c r="H9" s="2">
+        <f>(((1+B12)^G9*B12)/((1+B12)^G9-1))*C9+E9</f>
+        <v>76450.385123235697</v>
+      </c>
+      <c r="I9" s="2">
+        <f>(((1+B12)^G9)/((1+B12)^G9-1))*F9+E9</f>
+        <v>22565.636905448475</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -621,20 +632,24 @@
       <c r="D10" s="1">
         <v>450</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
+        <f>1000*10</f>
+        <v>10000</v>
+      </c>
+      <c r="F10" s="1">
         <f>D10*1000</f>
         <v>450000</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>20</v>
       </c>
-      <c r="G10">
-        <f>(((1+B13)^F10*B13)/((1+B13)^F10-1))*C10</f>
-        <v>10511.778921980562</v>
-      </c>
-      <c r="H10">
-        <f>(((1+B13)^F10)/((1+B13)^F10-1))*E10</f>
-        <v>722183.28471622174</v>
+      <c r="H10" s="2">
+        <f>(((1+B13)^G10*B13)/((1+B13)^G10-1))*C10+E10</f>
+        <v>20511.778921980564</v>
+      </c>
+      <c r="I10" s="2">
+        <f>(((1+B13)^G10)/((1+B13)^G10-1))*F10+E10</f>
+        <v>732183.28471622174</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">

--- a/SeminarPaper/Model/input_data/storages.xlsx
+++ b/SeminarPaper/Model/input_data/storages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330470D4-8A5B-438B-9980-DD082DEE52DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22913FC4-7092-476C-A7A5-B30EF1AA4990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">Technology    	</t>
   </si>
@@ -54,9 +54,6 @@
     <t>AnnuityTot[EUR/MWa]</t>
   </si>
   <si>
-    <t>MC[EUR/MWhTh]</t>
-  </si>
-  <si>
     <t>eta</t>
   </si>
   <si>
@@ -66,15 +63,9 @@
     <t>disp</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.76			</t>
-  </si>
-  <si>
     <t xml:space="preserve">Battery Storage </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.9			</t>
-  </si>
-  <si>
     <t>New Annuities seperated in Power and Energy</t>
   </si>
   <si>
@@ -103,6 +94,12 @@
   </si>
   <si>
     <t>FOMCost[EUR/MW(h)a]</t>
+  </si>
+  <si>
+    <t>MC[EUR/MWh]</t>
+  </si>
+  <si>
+    <t>MC[EUR/kWh]</t>
   </si>
 </sst>
 </file>
@@ -424,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +442,7 @@
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,18 +471,15 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>1237</v>
@@ -511,16 +505,13 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>750</v>
@@ -546,18 +537,15 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -566,27 +554,36 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>1220</v>
@@ -617,10 +614,21 @@
         <f>(((1+B12)^G9)/((1+B12)^G9-1))*F9+E9</f>
         <v>22565.636905448475</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f>0.3/L9</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="K9" s="2">
+        <f>J9*1000</f>
+        <v>394.73684210526318</v>
+      </c>
+      <c r="L9">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>131</v>
@@ -651,16 +659,27 @@
         <f>(((1+B13)^G10)/((1+B13)^G10-1))*F10+E10</f>
         <v>732183.28471622174</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f>0.3/L10</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K10" s="2">
+        <f>J10*1000</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0.05</v>
       </c>

--- a/SeminarPaper/Model/input_data/storages.xlsx
+++ b/SeminarPaper/Model/input_data/storages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22913FC4-7092-476C-A7A5-B30EF1AA4990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BA47F-8447-4D4A-8EAA-BC97FADFBE81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -439,7 +439,7 @@
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">

--- a/SeminarPaper/Model/input_data/storages.xlsx
+++ b/SeminarPaper/Model/input_data/storages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BA47F-8447-4D4A-8EAA-BC97FADFBE81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140767FB-269F-4206-80EE-342214131E3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,12 +615,12 @@
         <v>22565.636905448475</v>
       </c>
       <c r="J9">
-        <f>0.3/L9</f>
-        <v>0.39473684210526316</v>
+        <f>0.06/L9</f>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="K9" s="2">
         <f>J9*1000</f>
-        <v>394.73684210526318</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L9">
         <v>0.76</v>
@@ -660,12 +660,12 @@
         <v>732183.28471622174</v>
       </c>
       <c r="J10">
-        <f>0.3/L10</f>
-        <v>0.33333333333333331</v>
+        <f>0.06/L10</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K10" s="2">
         <f>J10*1000</f>
-        <v>333.33333333333331</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="L10">
         <v>0.9</v>
